--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Havcr2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +534,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.1477345541478</v>
+        <v>30.54238433333333</v>
       </c>
       <c r="H2">
-        <v>28.1477345541478</v>
+        <v>91.62715299999999</v>
       </c>
       <c r="I2">
-        <v>0.3264481834475823</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="J2">
-        <v>0.3264481834475823</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.7674893510177</v>
+        <v>0.08711966666666666</v>
       </c>
       <c r="N2">
-        <v>23.7674893510177</v>
+        <v>0.261359</v>
       </c>
       <c r="O2">
-        <v>0.4028286128405889</v>
+        <v>0.001362199707851451</v>
       </c>
       <c r="P2">
-        <v>0.4028286128405889</v>
+        <v>0.001362199707851451</v>
       </c>
       <c r="Q2">
-        <v>669.0009812709808</v>
+        <v>2.660842342325222</v>
       </c>
       <c r="R2">
-        <v>669.0009812709808</v>
+        <v>23.947581080927</v>
       </c>
       <c r="S2">
-        <v>0.1315026689025197</v>
+        <v>0.000409742530654977</v>
       </c>
       <c r="T2">
-        <v>0.1315026689025197</v>
+        <v>0.000409742530654977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +596,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.1477345541478</v>
+        <v>30.54238433333333</v>
       </c>
       <c r="H3">
-        <v>28.1477345541478</v>
+        <v>91.62715299999999</v>
       </c>
       <c r="I3">
-        <v>0.3264481834475823</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="J3">
-        <v>0.3264481834475823</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.2023987882454</v>
+        <v>27.84850933333334</v>
       </c>
       <c r="N3">
-        <v>23.2023987882454</v>
+        <v>83.545528</v>
       </c>
       <c r="O3">
-        <v>0.3932510489604087</v>
+        <v>0.4354382050508886</v>
       </c>
       <c r="P3">
-        <v>0.3932510489604087</v>
+        <v>0.4354382050508886</v>
       </c>
       <c r="Q3">
-        <v>653.0949621110121</v>
+        <v>850.5598751690871</v>
       </c>
       <c r="R3">
-        <v>653.0949621110121</v>
+        <v>7655.038876521784</v>
       </c>
       <c r="S3">
-        <v>0.1283760905719817</v>
+        <v>0.1309775292514367</v>
       </c>
       <c r="T3">
-        <v>0.1283760905719817</v>
+        <v>0.1309775292514367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +658,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.1477345541478</v>
+        <v>30.54238433333333</v>
       </c>
       <c r="H4">
-        <v>28.1477345541478</v>
+        <v>91.62715299999999</v>
       </c>
       <c r="I4">
-        <v>0.3264481834475823</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="J4">
-        <v>0.3264481834475823</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0316042905291</v>
+        <v>23.384581</v>
       </c>
       <c r="N4">
-        <v>12.0316042905291</v>
+        <v>70.15374300000001</v>
       </c>
       <c r="O4">
-        <v>0.2039203381990023</v>
+        <v>0.3656403958512459</v>
       </c>
       <c r="P4">
-        <v>0.2039203381990023</v>
+        <v>0.3656403958512459</v>
       </c>
       <c r="Q4">
-        <v>338.6624038303589</v>
+        <v>714.2208603759643</v>
       </c>
       <c r="R4">
-        <v>338.6624038303589</v>
+        <v>6427.987743383679</v>
       </c>
       <c r="S4">
-        <v>0.06656942397308092</v>
+        <v>0.1099827141661044</v>
       </c>
       <c r="T4">
-        <v>0.06656942397308092</v>
+        <v>0.1099827141661044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +720,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3200202677842</v>
+        <v>30.54238433333333</v>
       </c>
       <c r="H5">
-        <v>10.3200202677842</v>
+        <v>91.62715299999999</v>
       </c>
       <c r="I5">
-        <v>0.1196882066327409</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="J5">
-        <v>0.1196882066327409</v>
+        <v>0.3007947574010637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.7674893510177</v>
+        <v>12.63492533333333</v>
       </c>
       <c r="N5">
-        <v>23.7674893510177</v>
+        <v>37.904776</v>
       </c>
       <c r="O5">
-        <v>0.4028286128405889</v>
+        <v>0.197559199390014</v>
       </c>
       <c r="P5">
-        <v>0.4028286128405889</v>
+        <v>0.197559199390014</v>
       </c>
       <c r="Q5">
-        <v>245.2809718168478</v>
+        <v>385.9007455536364</v>
       </c>
       <c r="R5">
-        <v>245.2809718168478</v>
+        <v>3473.106709982727</v>
       </c>
       <c r="S5">
-        <v>0.0482138342512448</v>
+        <v>0.05942477145286765</v>
       </c>
       <c r="T5">
-        <v>0.0482138342512448</v>
+        <v>0.05942477145286765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +782,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3200202677842</v>
+        <v>21.55382266666667</v>
       </c>
       <c r="H6">
-        <v>10.3200202677842</v>
+        <v>64.661468</v>
       </c>
       <c r="I6">
-        <v>0.1196882066327409</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="J6">
-        <v>0.1196882066327409</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.2023987882454</v>
+        <v>0.08711966666666666</v>
       </c>
       <c r="N6">
-        <v>23.2023987882454</v>
+        <v>0.261359</v>
       </c>
       <c r="O6">
-        <v>0.3932510489604087</v>
+        <v>0.001362199707851451</v>
       </c>
       <c r="P6">
-        <v>0.3932510489604087</v>
+        <v>0.001362199707851451</v>
       </c>
       <c r="Q6">
-        <v>239.4492257559041</v>
+        <v>1.877761846112444</v>
       </c>
       <c r="R6">
-        <v>239.4492257559041</v>
+        <v>16.899856615012</v>
       </c>
       <c r="S6">
-        <v>0.04706751280651553</v>
+        <v>0.0002891561362185488</v>
       </c>
       <c r="T6">
-        <v>0.04706751280651553</v>
+        <v>0.0002891561362185488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,122 +844,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3200202677842</v>
+        <v>21.55382266666667</v>
       </c>
       <c r="H7">
-        <v>10.3200202677842</v>
+        <v>64.661468</v>
       </c>
       <c r="I7">
-        <v>0.1196882066327409</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="J7">
-        <v>0.1196882066327409</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.0316042905291</v>
+        <v>27.84850933333334</v>
       </c>
       <c r="N7">
-        <v>12.0316042905291</v>
+        <v>83.545528</v>
       </c>
       <c r="O7">
-        <v>0.2039203381990023</v>
+        <v>0.4354382050508886</v>
       </c>
       <c r="P7">
-        <v>0.2039203381990023</v>
+        <v>0.4354382050508886</v>
       </c>
       <c r="Q7">
-        <v>124.1664001322196</v>
+        <v>600.2418317016783</v>
       </c>
       <c r="R7">
-        <v>124.1664001322196</v>
+        <v>5402.176485315104</v>
       </c>
       <c r="S7">
-        <v>0.0244068595749806</v>
+        <v>0.09243110845549067</v>
       </c>
       <c r="T7">
-        <v>0.0244068595749806</v>
+        <v>0.09243110845549067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.127496266433</v>
+        <v>21.55382266666667</v>
       </c>
       <c r="H8">
-        <v>10.127496266433</v>
+        <v>64.661468</v>
       </c>
       <c r="I8">
-        <v>0.1174553764776087</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="J8">
-        <v>0.1174553764776087</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.7674893510177</v>
+        <v>23.384581</v>
       </c>
       <c r="N8">
-        <v>23.7674893510177</v>
+        <v>70.15374300000001</v>
       </c>
       <c r="O8">
-        <v>0.4028286128405889</v>
+        <v>0.3656403958512459</v>
       </c>
       <c r="P8">
-        <v>0.4028286128405889</v>
+        <v>0.3656403958512459</v>
       </c>
       <c r="Q8">
-        <v>240.7051596649179</v>
+        <v>504.0271120083027</v>
       </c>
       <c r="R8">
-        <v>240.7051596649179</v>
+        <v>4536.244008074725</v>
       </c>
       <c r="S8">
-        <v>0.04731438637714425</v>
+        <v>0.07761502480170596</v>
       </c>
       <c r="T8">
-        <v>0.04731438637714425</v>
+        <v>0.07761502480170596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +968,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.127496266433</v>
+        <v>21.55382266666667</v>
       </c>
       <c r="H9">
-        <v>10.127496266433</v>
+        <v>64.661468</v>
       </c>
       <c r="I9">
-        <v>0.1174553764776087</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="J9">
-        <v>0.1174553764776087</v>
+        <v>0.2122714713209156</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.2023987882454</v>
+        <v>12.63492533333333</v>
       </c>
       <c r="N9">
-        <v>23.2023987882454</v>
+        <v>37.904776</v>
       </c>
       <c r="O9">
-        <v>0.3932510489604087</v>
+        <v>0.197559199390014</v>
       </c>
       <c r="P9">
-        <v>0.3932510489604087</v>
+        <v>0.197559199390014</v>
       </c>
       <c r="Q9">
-        <v>234.9822071002449</v>
+        <v>272.3309400412409</v>
       </c>
       <c r="R9">
-        <v>234.9822071002449</v>
+        <v>2450.978460371168</v>
       </c>
       <c r="S9">
-        <v>0.04618945000585934</v>
+        <v>0.04193618192750041</v>
       </c>
       <c r="T9">
-        <v>0.04618945000585934</v>
+        <v>0.04193618192750041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1030,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.127496266433</v>
+        <v>11.129763</v>
       </c>
       <c r="H10">
-        <v>10.127496266433</v>
+        <v>33.389289</v>
       </c>
       <c r="I10">
-        <v>0.1174553764776087</v>
+        <v>0.1096107731793108</v>
       </c>
       <c r="J10">
-        <v>0.1174553764776087</v>
+        <v>0.1096107731793108</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>12.0316042905291</v>
+        <v>0.08711966666666666</v>
       </c>
       <c r="N10">
-        <v>12.0316042905291</v>
+        <v>0.261359</v>
       </c>
       <c r="O10">
-        <v>0.2039203381990023</v>
+        <v>0.001362199707851451</v>
       </c>
       <c r="P10">
-        <v>0.2039203381990023</v>
+        <v>0.001362199707851451</v>
       </c>
       <c r="Q10">
-        <v>121.8500275315327</v>
+        <v>0.9696212426389998</v>
       </c>
       <c r="R10">
-        <v>121.8500275315327</v>
+        <v>8.726591183750999</v>
       </c>
       <c r="S10">
-        <v>0.0239515400946051</v>
+        <v>0.0001493117632022288</v>
       </c>
       <c r="T10">
-        <v>0.0239515400946051</v>
+        <v>0.0001493117632022288</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,57 +1095,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.1135417437245</v>
+        <v>11.129763</v>
       </c>
       <c r="H11">
-        <v>37.1135417437245</v>
+        <v>33.389289</v>
       </c>
       <c r="I11">
-        <v>0.4304306714360264</v>
+        <v>0.1096107731793108</v>
       </c>
       <c r="J11">
-        <v>0.4304306714360264</v>
+        <v>0.1096107731793108</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.7674893510177</v>
+        <v>27.84850933333334</v>
       </c>
       <c r="N11">
-        <v>23.7674893510177</v>
+        <v>83.545528</v>
       </c>
       <c r="O11">
-        <v>0.4028286128405889</v>
+        <v>0.4354382050508886</v>
       </c>
       <c r="P11">
-        <v>0.4028286128405889</v>
+        <v>0.4354382050508886</v>
       </c>
       <c r="Q11">
-        <v>882.0957081725229</v>
+        <v>309.947308783288</v>
       </c>
       <c r="R11">
-        <v>882.0957081725229</v>
+        <v>2789.525779049592</v>
       </c>
       <c r="S11">
-        <v>0.1733897902986178</v>
+        <v>0.04772871832743917</v>
       </c>
       <c r="T11">
-        <v>0.1733897902986178</v>
+        <v>0.04772871832743917</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1157,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.1135417437245</v>
+        <v>11.129763</v>
       </c>
       <c r="H12">
-        <v>37.1135417437245</v>
+        <v>33.389289</v>
       </c>
       <c r="I12">
-        <v>0.4304306714360264</v>
+        <v>0.1096107731793108</v>
       </c>
       <c r="J12">
-        <v>0.4304306714360264</v>
+        <v>0.1096107731793108</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.2023987882454</v>
+        <v>23.384581</v>
       </c>
       <c r="N12">
-        <v>23.2023987882454</v>
+        <v>70.15374300000001</v>
       </c>
       <c r="O12">
-        <v>0.3932510489604087</v>
+        <v>0.3656403958512459</v>
       </c>
       <c r="P12">
-        <v>0.3932510489604087</v>
+        <v>0.3656403958512459</v>
       </c>
       <c r="Q12">
-        <v>861.1231959820883</v>
+        <v>260.264844384303</v>
       </c>
       <c r="R12">
-        <v>861.1231959820883</v>
+        <v>2342.383599458727</v>
       </c>
       <c r="S12">
-        <v>0.1692673130469504</v>
+        <v>0.04007812649484431</v>
       </c>
       <c r="T12">
-        <v>0.1692673130469504</v>
+        <v>0.04007812649484431</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1219,57 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.1135417437245</v>
+        <v>11.129763</v>
       </c>
       <c r="H13">
-        <v>37.1135417437245</v>
+        <v>33.389289</v>
       </c>
       <c r="I13">
-        <v>0.4304306714360264</v>
+        <v>0.1096107731793108</v>
       </c>
       <c r="J13">
-        <v>0.4304306714360264</v>
+        <v>0.1096107731793108</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0316042905291</v>
+        <v>12.63492533333333</v>
       </c>
       <c r="N13">
-        <v>12.0316042905291</v>
+        <v>37.904776</v>
       </c>
       <c r="O13">
-        <v>0.2039203381990023</v>
+        <v>0.197559199390014</v>
       </c>
       <c r="P13">
-        <v>0.2039203381990023</v>
+        <v>0.197559199390014</v>
       </c>
       <c r="Q13">
-        <v>446.5354480805265</v>
+        <v>140.623724482696</v>
       </c>
       <c r="R13">
-        <v>446.5354480805265</v>
+        <v>1265.613520344264</v>
       </c>
       <c r="S13">
-        <v>0.08777356809045812</v>
+        <v>0.02165461659382506</v>
       </c>
       <c r="T13">
-        <v>0.08777356809045812</v>
+        <v>0.02165461659382506</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1278,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.51541052197044</v>
+        <v>37.786202</v>
       </c>
       <c r="H14">
-        <v>0.51541052197044</v>
+        <v>113.358606</v>
       </c>
       <c r="I14">
-        <v>0.005977562006041677</v>
+        <v>0.3721350415754244</v>
       </c>
       <c r="J14">
-        <v>0.005977562006041677</v>
+        <v>0.3721350415754244</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.7674893510177</v>
+        <v>0.08711966666666666</v>
       </c>
       <c r="N14">
-        <v>23.7674893510177</v>
+        <v>0.261359</v>
       </c>
       <c r="O14">
-        <v>0.4028286128405889</v>
+        <v>0.001362199707851451</v>
       </c>
       <c r="P14">
-        <v>0.4028286128405889</v>
+        <v>0.001362199707851451</v>
       </c>
       <c r="Q14">
-        <v>12.25001409233491</v>
+        <v>3.291921322839333</v>
       </c>
       <c r="R14">
-        <v>12.25001409233491</v>
+        <v>29.627291905554</v>
       </c>
       <c r="S14">
-        <v>0.002407933011062377</v>
+        <v>0.0005069222449153306</v>
       </c>
       <c r="T14">
-        <v>0.002407933011062377</v>
+        <v>0.0005069222449153306</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1340,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.51541052197044</v>
+        <v>37.786202</v>
       </c>
       <c r="H15">
-        <v>0.51541052197044</v>
+        <v>113.358606</v>
       </c>
       <c r="I15">
-        <v>0.005977562006041677</v>
+        <v>0.3721350415754244</v>
       </c>
       <c r="J15">
-        <v>0.005977562006041677</v>
+        <v>0.3721350415754244</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.2023987882454</v>
+        <v>27.84850933333334</v>
       </c>
       <c r="N15">
-        <v>23.2023987882454</v>
+        <v>83.545528</v>
       </c>
       <c r="O15">
-        <v>0.3932510489604087</v>
+        <v>0.4354382050508886</v>
       </c>
       <c r="P15">
-        <v>0.3932510489604087</v>
+        <v>0.4354382050508886</v>
       </c>
       <c r="Q15">
-        <v>11.95876047041587</v>
+        <v>1052.289399068219</v>
       </c>
       <c r="R15">
-        <v>11.95876047041587</v>
+        <v>9470.60459161397</v>
       </c>
       <c r="S15">
-        <v>0.002350682529101775</v>
+        <v>0.1620418145401406</v>
       </c>
       <c r="T15">
-        <v>0.002350682529101775</v>
+        <v>0.1620418145401406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>37.786202</v>
+      </c>
+      <c r="H16">
+        <v>113.358606</v>
+      </c>
+      <c r="I16">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="J16">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>23.384581</v>
+      </c>
+      <c r="N16">
+        <v>70.15374300000001</v>
+      </c>
+      <c r="O16">
+        <v>0.3656403958512459</v>
+      </c>
+      <c r="P16">
+        <v>0.3656403958512459</v>
+      </c>
+      <c r="Q16">
+        <v>883.6145013513622</v>
+      </c>
+      <c r="R16">
+        <v>7952.53051216226</v>
+      </c>
+      <c r="S16">
+        <v>0.136067603911758</v>
+      </c>
+      <c r="T16">
+        <v>0.136067603911758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>37.786202</v>
+      </c>
+      <c r="H17">
+        <v>113.358606</v>
+      </c>
+      <c r="I17">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="J17">
+        <v>0.3721350415754244</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.63492533333333</v>
+      </c>
+      <c r="N17">
+        <v>37.904776</v>
+      </c>
+      <c r="O17">
+        <v>0.197559199390014</v>
+      </c>
+      <c r="P17">
+        <v>0.197559199390014</v>
+      </c>
+      <c r="Q17">
+        <v>477.4258409002507</v>
+      </c>
+      <c r="R17">
+        <v>4296.832568102256</v>
+      </c>
+      <c r="S17">
+        <v>0.07351870087861043</v>
+      </c>
+      <c r="T17">
+        <v>0.07351870087861043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5267796666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.580339</v>
+      </c>
+      <c r="I18">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="J18">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.08711966666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.261359</v>
+      </c>
+      <c r="O18">
+        <v>0.001362199707851451</v>
+      </c>
+      <c r="P18">
+        <v>0.001362199707851451</v>
+      </c>
+      <c r="Q18">
+        <v>0.04589286896677777</v>
+      </c>
+      <c r="R18">
+        <v>0.413035820701</v>
+      </c>
+      <c r="S18">
+        <v>7.0670328603657E-06</v>
+      </c>
+      <c r="T18">
+        <v>7.0670328603657E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5267796666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.580339</v>
+      </c>
+      <c r="I19">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="J19">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>27.84850933333334</v>
+      </c>
+      <c r="N19">
+        <v>83.545528</v>
+      </c>
+      <c r="O19">
+        <v>0.4354382050508886</v>
+      </c>
+      <c r="P19">
+        <v>0.4354382050508886</v>
+      </c>
+      <c r="Q19">
+        <v>14.67002846377689</v>
+      </c>
+      <c r="R19">
+        <v>132.030256173992</v>
+      </c>
+      <c r="S19">
+        <v>0.002259034476381539</v>
+      </c>
+      <c r="T19">
+        <v>0.002259034476381539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5267796666666666</v>
+      </c>
+      <c r="H20">
+        <v>1.580339</v>
+      </c>
+      <c r="I20">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="J20">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.384581</v>
+      </c>
+      <c r="N20">
+        <v>70.15374300000001</v>
+      </c>
+      <c r="O20">
+        <v>0.3656403958512459</v>
+      </c>
+      <c r="P20">
+        <v>0.3656403958512459</v>
+      </c>
+      <c r="Q20">
+        <v>12.31852178431967</v>
+      </c>
+      <c r="R20">
+        <v>110.866696058877</v>
+      </c>
+      <c r="S20">
+        <v>0.001896926476833207</v>
+      </c>
+      <c r="T20">
+        <v>0.001896926476833207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.51541052197044</v>
-      </c>
-      <c r="H16">
-        <v>0.51541052197044</v>
-      </c>
-      <c r="I16">
-        <v>0.005977562006041677</v>
-      </c>
-      <c r="J16">
-        <v>0.005977562006041677</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>12.0316042905291</v>
-      </c>
-      <c r="N16">
-        <v>12.0316042905291</v>
-      </c>
-      <c r="O16">
-        <v>0.2039203381990023</v>
-      </c>
-      <c r="P16">
-        <v>0.2039203381990023</v>
-      </c>
-      <c r="Q16">
-        <v>6.201215447523388</v>
-      </c>
-      <c r="R16">
-        <v>6.201215447523388</v>
-      </c>
-      <c r="S16">
-        <v>0.001218946465877525</v>
-      </c>
-      <c r="T16">
-        <v>0.001218946465877525</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5267796666666666</v>
+      </c>
+      <c r="H21">
+        <v>1.580339</v>
+      </c>
+      <c r="I21">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="J21">
+        <v>0.00518795652328562</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.63492533333333</v>
+      </c>
+      <c r="N21">
+        <v>37.904776</v>
+      </c>
+      <c r="O21">
+        <v>0.197559199390014</v>
+      </c>
+      <c r="P21">
+        <v>0.197559199390014</v>
+      </c>
+      <c r="Q21">
+        <v>6.655821755451555</v>
+      </c>
+      <c r="R21">
+        <v>59.902395799064</v>
+      </c>
+      <c r="S21">
+        <v>0.001024928537210508</v>
+      </c>
+      <c r="T21">
+        <v>0.001024928537210508</v>
       </c>
     </row>
   </sheetData>
